--- a/06_danskcargo/DanskCargo GUI Hierarchy.xlsx
+++ b/06_danskcargo/DanskCargo GUI Hierarchy.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="28455" windowHeight="12030" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="28455" windowHeight="12030"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="1" r:id="rId1"/>
-    <sheet name="2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hierarchy" sheetId="1" r:id="rId1"/>
+    <sheet name="Frames" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
@@ -3186,9 +3186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
@@ -3201,9 +3199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:F27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="R36" sqref="R36"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
